--- a/Labs_and_Sensors/Embedded_Qs/Embedded_Qs_Arrhenius.xlsx
+++ b/Labs_and_Sensors/Embedded_Qs/Embedded_Qs_Arrhenius.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\Labs_and_Sensors\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8781D3-1CF8-44E3-B94D-996F4101359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB813104-F844-4349-A7B1-F158DA946A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="480" windowWidth="16020" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="405" windowWidth="23175" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Correct</t>
   </si>
@@ -252,39 +252,9 @@
     <t>An internal standard is generally more stringent than a regulatory standard.</t>
   </si>
   <si>
-    <t>The pointer</t>
-  </si>
-  <si>
-    <t>The printed temperature values on the display surface</t>
-  </si>
-  <si>
-    <t>The high expansion metal in the spiral</t>
-  </si>
-  <si>
-    <t>Both metals in the spiral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both metals in the spiral "sense" the temperature change, and respond by changing shape.   </t>
-  </si>
-  <si>
     <t>The length of the pointer</t>
   </si>
   <si>
-    <t>The angle that the pointer points</t>
-  </si>
-  <si>
-    <t>The temperature of the metal</t>
-  </si>
-  <si>
-    <t>The amount that the metal has expanded</t>
-  </si>
-  <si>
-    <t>A measurement instrument has to transduce the unknown quantity into a readable value.  What does the bimetallic thermometer shown in the image transduce temperature into?</t>
-  </si>
-  <si>
-    <t>The length of the metal band</t>
-  </si>
-  <si>
     <t xml:space="preserve">If the low expansion metal was kept the same, but the high expansion metal was replaced by a metal with an even larger coefficient of thermal expansion, what would happen to the sensitivity? </t>
   </si>
   <si>
@@ -333,13 +303,40 @@
     <t>In the last question, we saw that the sensitivity would increase in this situation.   But the pointer can only move at the most 360 degrees without creating a situation where the reading is uncertain.   So since similar change in the input would result in a larger output, the pointer would turn a full 360 degrees with a smaller input: that is, it's range would be smaller.</t>
   </si>
   <si>
-    <t>Look at the image of a bimetallic thermometer above.  This type of thermometer has a pointer that rotates so that the pointer points at the correct temperature.  The pointer rotates because the two metals fused together in a spiral in the thermometer have different rates of expansion: when the temperature changes, one metal expands more than the other, causing the fused spiral to tighten or loosen.  What part of the thermometer would best be described as the "sensor" for this thermometer?</t>
-  </si>
-  <si>
-    <t>All of the other answers are steps along the way as the thermometer changes a temperature to a readable value (the metal changes temperature, it lengthens (or shortens) to a new length, etc...).  But ultimately what we are reading is the angle of the pointer: which direction is it pointing?</t>
-  </si>
-  <si>
     <t>You'd want to make sure that when the measurement standard was a certain temperature that your pointer pointed to that temperature (for instance, if the thermometer were placed in ice water, the pointer would point to 32 degrees F).</t>
+  </si>
+  <si>
+    <t>To replace the manufacturer's values for K and c with more accurate values</t>
+  </si>
+  <si>
+    <t>To identify a function that describes the viscosity of the N35 measurement standard at any temperature between 10-50 degrees C</t>
+  </si>
+  <si>
+    <t>To find the viscosity of soybean oil at any temperature between 10-50 degrees</t>
+  </si>
+  <si>
+    <t>To find the viscosity of the N35 measurment standard at 25 degrees C</t>
+  </si>
+  <si>
+    <t>What is the *main* objective of calibrating the Zahn cup? (Choose all that are true)</t>
+  </si>
+  <si>
+    <t>To find the uncertainty of a Zahn Cup measurement</t>
+  </si>
+  <si>
+    <t>Yes!  Using the N35 standard to dentifythe coefficients will make our transduction equation more accurate.</t>
+  </si>
+  <si>
+    <t>Allow us to accurately transduce output values from the Zahn cup into accurate input values</t>
+  </si>
+  <si>
+    <t>Yes!  The output of the Zahn Cup is time: we want to be able to turn these time values into reliably accurate viscosity values.</t>
+  </si>
+  <si>
+    <t>What is the objective of Step 1 of the calibration process?  That is, what is the aim of this notebook?</t>
+  </si>
+  <si>
+    <t>Yes!  All that step 1 is doing is fitting a curve to the manufacturer's values for the viscosity of the N35 standard.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -406,6 +403,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,43 +739,41 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
@@ -780,21 +781,35 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,10 +1343,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,87 +1445,12 @@
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1435,7 +1459,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1444,29 +1468,29 @@
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1496,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1507,7 +1531,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1516,7 +1540,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1525,13 +1549,13 @@
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,25 +1591,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1594,7 +1618,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>

--- a/Labs_and_Sensors/Embedded_Qs/Embedded_Qs_Arrhenius.xlsx
+++ b/Labs_and_Sensors/Embedded_Qs/Embedded_Qs_Arrhenius.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\Labs_and_Sensors\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB813104-F844-4349-A7B1-F158DA946A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C83FEE-E272-4330-8E71-67B3F89980AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="405" windowWidth="23175" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="405" windowWidth="23175" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>Correct</t>
   </si>
@@ -252,42 +252,6 @@
     <t>An internal standard is generally more stringent than a regulatory standard.</t>
   </si>
   <si>
-    <t>The length of the pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the low expansion metal was kept the same, but the high expansion metal was replaced by a metal with an even larger coefficient of thermal expansion, what would happen to the sensitivity? </t>
-  </si>
-  <si>
-    <t>The sensitivity would go down</t>
-  </si>
-  <si>
-    <t>The sensitivity would go up</t>
-  </si>
-  <si>
-    <t>The sensitivity would stay the same</t>
-  </si>
-  <si>
-    <t>Remember that sensitivity is the ratio of the output to the input.  In this case, the same input (say a rise in temperature of 5 degrees) would cause a larger expansion of the "high expansion" metal, which would curve the spiral more, and which would cause the pointer to move a further distance.   So the output (the change in pointer angle) would be larger for the same input: a higher sensitivity.</t>
-  </si>
-  <si>
-    <t>The type of metal in the spiral</t>
-  </si>
-  <si>
-    <t>The location of the temperature markers</t>
-  </si>
-  <si>
-    <t>The spacing between the individual temperature markers</t>
-  </si>
-  <si>
-    <t>If you were calibrating a bimetallic thermometer using standardized inputs (maybe ice water and boiling water), what would you change to make the instrument correctly calibrated?  Mark all that are true</t>
-  </si>
-  <si>
-    <t>The scale for the temperature (Fahrenheit, Celsius, etc…)</t>
-  </si>
-  <si>
-    <t>This spacing represents the sensitivity of the instrument.  You'd want to make sure that every time the temperature went up 1 degree, the pointer moved exactly the distance between 2 temperature markers.</t>
-  </si>
-  <si>
     <t>If, as in the previous question, you replaced the high expansion metal with an even higher expansion metal, what would happen to the range of a simple bimetallic thermometer such as that pictured?</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t>In the last question, we saw that the sensitivity would increase in this situation.   But the pointer can only move at the most 360 degrees without creating a situation where the reading is uncertain.   So since similar change in the input would result in a larger output, the pointer would turn a full 360 degrees with a smaller input: that is, it's range would be smaller.</t>
   </si>
   <si>
-    <t>You'd want to make sure that when the measurement standard was a certain temperature that your pointer pointed to that temperature (for instance, if the thermometer were placed in ice water, the pointer would point to 32 degrees F).</t>
-  </si>
-  <si>
     <t>To replace the manufacturer's values for K and c with more accurate values</t>
   </si>
   <si>
@@ -337,6 +298,45 @@
   </si>
   <si>
     <t>Yes!  All that step 1 is doing is fitting a curve to the manufacturer's values for the viscosity of the N35 standard.</t>
+  </si>
+  <si>
+    <t>Because it's more fun than  a linear function</t>
+  </si>
+  <si>
+    <t>Why do we use an Arrhenius curve to model the N35 viscosity data rather than another function like a linear or exponential curve?</t>
+  </si>
+  <si>
+    <t>Because it has been shown to better fit viscosity vs. temperature data</t>
+  </si>
+  <si>
+    <t>Because the coefficients helpfully represent the physics that control the relationship between temperature and viscosity</t>
+  </si>
+  <si>
+    <t>Well, it is!</t>
+  </si>
+  <si>
+    <t>Yup!  We're leaning on other scientists here who have spent a lot of time trying to understand the behavior of fluids</t>
+  </si>
+  <si>
+    <t>Yes!  Mu_0 represents a limit as the temperature gets very high, and B (which controls rate of change with temperature) has a strong connection to how intermolecular forces act in different fluids</t>
+  </si>
+  <si>
+    <t>Why is a least squares fitting proceduce called "least squares"?</t>
+  </si>
+  <si>
+    <t>Because the process identifies the smallest squared deviation amongst all the data points</t>
+  </si>
+  <si>
+    <t>Because the process replaces the deviation of all the data points with the smallest squared deviation in the set</t>
+  </si>
+  <si>
+    <t>Because the process minimizes the sum of the squared deviations</t>
+  </si>
+  <si>
+    <t>Because the process minimizes the square root of all the deviations</t>
+  </si>
+  <si>
+    <t>Yup!  The overall deviation of between the curve and the data set is defined as the sum of the squares of all the individual deviations.  The least squares process minimizes this sum.</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -749,19 +749,19 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -781,19 +781,19 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1359,14 +1359,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -1375,18 +1375,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,60 +1441,54 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
   </sheetData>
@@ -1506,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,49 +1512,49 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,25 +1585,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1618,7 +1612,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
